--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Inhbb</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Inhbb</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H2">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I2">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J2">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N2">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O2">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P2">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q2">
-        <v>5.050712530790667</v>
+        <v>3.93966211632</v>
       </c>
       <c r="R2">
-        <v>45.45641277711601</v>
+        <v>35.45695904688</v>
       </c>
       <c r="S2">
-        <v>0.07060789477164242</v>
+        <v>0.0676790782286071</v>
       </c>
       <c r="T2">
-        <v>0.08082982158318187</v>
+        <v>0.07415351501919527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H3">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I3">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J3">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.005506</v>
       </c>
       <c r="O3">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P3">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q3">
-        <v>12.68051112001178</v>
+        <v>11.22329422018</v>
       </c>
       <c r="R3">
-        <v>114.124600080106</v>
+        <v>101.00964798162</v>
       </c>
       <c r="S3">
-        <v>0.1772708680912139</v>
+        <v>0.1928038966498362</v>
       </c>
       <c r="T3">
-        <v>0.2029344266112196</v>
+        <v>0.2112482471716023</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H4">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I4">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J4">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N4">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O4">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P4">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q4">
-        <v>6.472401079635334</v>
+        <v>7.784867276619999</v>
       </c>
       <c r="R4">
-        <v>58.25160971671801</v>
+        <v>70.06380548957999</v>
       </c>
       <c r="S4">
-        <v>0.09048280050878578</v>
+        <v>0.1337354894550792</v>
       </c>
       <c r="T4">
-        <v>0.1035820235842682</v>
+        <v>0.1465291325689905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H5">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I5">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J5">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N5">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O5">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P5">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q5">
-        <v>4.3646569313325</v>
+        <v>1.85541197373</v>
       </c>
       <c r="R5">
-        <v>26.187941587995</v>
+        <v>11.13247184238</v>
       </c>
       <c r="S5">
-        <v>0.06101698234518226</v>
+        <v>0.03187394461981503</v>
       </c>
       <c r="T5">
-        <v>0.04656695319464501</v>
+        <v>0.02328208453729012</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.584700333333333</v>
+        <v>1.40259</v>
       </c>
       <c r="H6">
-        <v>4.754101</v>
+        <v>4.20777</v>
       </c>
       <c r="I6">
-        <v>0.517828937744538</v>
+        <v>0.5454755110174769</v>
       </c>
       <c r="J6">
-        <v>0.5695117169694714</v>
+        <v>0.5860167207731164</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N6">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O6">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P6">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q6">
-        <v>8.472974321445333</v>
+        <v>6.949401452280001</v>
       </c>
       <c r="R6">
-        <v>76.256768893008</v>
+        <v>62.54461307052</v>
       </c>
       <c r="S6">
-        <v>0.1184503920277137</v>
+        <v>0.1193831020641394</v>
       </c>
       <c r="T6">
-        <v>0.1355984919961569</v>
+        <v>0.1308037414760381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.905203</v>
       </c>
       <c r="I7">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J7">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N7">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O7">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P7">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q7">
-        <v>2.024069885305334</v>
+        <v>1.783808545381333</v>
       </c>
       <c r="R7">
-        <v>18.216628967748</v>
+        <v>16.054276908432</v>
       </c>
       <c r="S7">
-        <v>0.02829606963390502</v>
+        <v>0.03064387618105955</v>
       </c>
       <c r="T7">
-        <v>0.03239250040538534</v>
+        <v>0.03357538536448425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.905203</v>
       </c>
       <c r="I8">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J8">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>24.005506</v>
       </c>
       <c r="O8">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P8">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q8">
         <v>5.08170689419089</v>
@@ -948,10 +948,10 @@
         <v>45.735362047718</v>
       </c>
       <c r="S8">
-        <v>0.07104118942781926</v>
+        <v>0.08729815610381697</v>
       </c>
       <c r="T8">
-        <v>0.08132584444103634</v>
+        <v>0.0956494281427165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,10 +980,10 @@
         <v>1.905203</v>
       </c>
       <c r="I9">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J9">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N9">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O9">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P9">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q9">
-        <v>2.593810681372667</v>
+        <v>3.524848670440222</v>
       </c>
       <c r="R9">
-        <v>23.344296132354</v>
+        <v>31.723638033962</v>
       </c>
       <c r="S9">
-        <v>0.03626092566770042</v>
+        <v>0.06055303776496465</v>
       </c>
       <c r="T9">
-        <v>0.04151043111596041</v>
+        <v>0.06634577055253457</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,10 +1042,10 @@
         <v>1.905203</v>
       </c>
       <c r="I10">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J10">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N10">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O10">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P10">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q10">
-        <v>1.7491335332475</v>
+        <v>0.840097357647</v>
       </c>
       <c r="R10">
-        <v>10.494801199485</v>
+        <v>5.040584145882</v>
       </c>
       <c r="S10">
-        <v>0.02445251748227231</v>
+        <v>0.01443195205809858</v>
       </c>
       <c r="T10">
-        <v>0.01866167734494855</v>
+        <v>0.01054171147821738</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1104,10 +1104,10 @@
         <v>1.905203</v>
       </c>
       <c r="I11">
-        <v>0.2075196226747617</v>
+        <v>0.2469815555548498</v>
       </c>
       <c r="J11">
-        <v>0.2282314640991825</v>
+        <v>0.2653378902523436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N11">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O11">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P11">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q11">
-        <v>3.395539155802667</v>
+        <v>3.146564687492</v>
       </c>
       <c r="R11">
-        <v>30.559852402224</v>
+        <v>28.319082187428</v>
       </c>
       <c r="S11">
-        <v>0.04746892046306467</v>
+        <v>0.05405453344691002</v>
       </c>
       <c r="T11">
-        <v>0.05434101079185195</v>
+        <v>0.05922559471439082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H12">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I12">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J12">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.187172</v>
+        <v>2.808848</v>
       </c>
       <c r="N12">
-        <v>9.561516000000001</v>
+        <v>8.426544</v>
       </c>
       <c r="O12">
-        <v>0.1363537060697748</v>
+        <v>0.1240735410877844</v>
       </c>
       <c r="P12">
-        <v>0.1419282855378281</v>
+        <v>0.1265382238946467</v>
       </c>
       <c r="Q12">
-        <v>0.02344377484133334</v>
+        <v>1.498965610408</v>
       </c>
       <c r="R12">
-        <v>0.210993973572</v>
+        <v>8.993793662448001</v>
       </c>
       <c r="S12">
-        <v>0.0003277390223568733</v>
+        <v>0.02575058667811772</v>
       </c>
       <c r="T12">
-        <v>0.0003751859022086561</v>
+        <v>0.0188093235109672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H13">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I13">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J13">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>24.005506</v>
       </c>
       <c r="O13">
-        <v>0.3423348043532233</v>
+        <v>0.3534602246216307</v>
       </c>
       <c r="P13">
-        <v>0.3563305557453488</v>
+        <v>0.3604816034820782</v>
       </c>
       <c r="Q13">
-        <v>0.05885883343355556</v>
+        <v>4.270247441233668</v>
       </c>
       <c r="R13">
-        <v>0.529729500902</v>
+        <v>25.621484647402</v>
       </c>
       <c r="S13">
-        <v>0.0008228340639310811</v>
+        <v>0.07335817186797755</v>
       </c>
       <c r="T13">
-        <v>0.0009419560064099988</v>
+        <v>0.05358392816775942</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H14">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I14">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J14">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.084306000000001</v>
+        <v>5.550351333333333</v>
       </c>
       <c r="N14">
-        <v>12.252918</v>
+        <v>16.651054</v>
       </c>
       <c r="O14">
-        <v>0.1747349248245835</v>
+        <v>0.2451723070126871</v>
       </c>
       <c r="P14">
-        <v>0.1818786523575961</v>
+        <v>0.2500425796309677</v>
       </c>
       <c r="Q14">
-        <v>0.03004279350066667</v>
+        <v>2.961992167019666</v>
       </c>
       <c r="R14">
-        <v>0.270385141506</v>
+        <v>17.771953002118</v>
       </c>
       <c r="S14">
-        <v>0.0004199919098957671</v>
+        <v>0.05088377979264318</v>
       </c>
       <c r="T14">
-        <v>0.0004807942688710328</v>
+        <v>0.03716767650944258</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H15">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I15">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J15">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.7542475</v>
+        <v>1.322847</v>
       </c>
       <c r="N15">
-        <v>5.508495</v>
+        <v>2.645694</v>
       </c>
       <c r="O15">
-        <v>0.1178323146847462</v>
+        <v>0.0584333191427063</v>
       </c>
       <c r="P15">
-        <v>0.0817664532741145</v>
+        <v>0.0397293860601361</v>
       </c>
       <c r="Q15">
-        <v>0.0202593265275</v>
+        <v>0.7059485457494999</v>
       </c>
       <c r="R15">
-        <v>0.121555959165</v>
+        <v>2.823794182998</v>
       </c>
       <c r="S15">
-        <v>0.0002832211072947623</v>
+        <v>0.01212742246479268</v>
       </c>
       <c r="T15">
-        <v>0.0002161487431895602</v>
+        <v>0.005905590044628598</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.007355666666666667</v>
+        <v>0.5336585</v>
       </c>
       <c r="H16">
-        <v>0.022067</v>
+        <v>1.067317</v>
       </c>
       <c r="I16">
-        <v>0.002403594532217283</v>
+        <v>0.2075429334276733</v>
       </c>
       <c r="J16">
-        <v>0.002643489286063827</v>
+        <v>0.14864538897454</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.346736</v>
+        <v>4.954692000000001</v>
       </c>
       <c r="N16">
-        <v>16.040208</v>
+        <v>14.864076</v>
       </c>
       <c r="O16">
-        <v>0.2287442500676723</v>
+        <v>0.2188606081351916</v>
       </c>
       <c r="P16">
-        <v>0.2380960530851126</v>
+        <v>0.2232082069321711</v>
       </c>
       <c r="Q16">
-        <v>0.03932880777066666</v>
+        <v>2.644113500682001</v>
       </c>
       <c r="R16">
-        <v>0.353959269936</v>
+        <v>15.864681004092</v>
       </c>
       <c r="S16">
-        <v>0.0005498084287388</v>
+        <v>0.04542297262414215</v>
       </c>
       <c r="T16">
-        <v>0.0006294043653845794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.833154</v>
-      </c>
-      <c r="H17">
-        <v>1.666308</v>
-      </c>
-      <c r="I17">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J17">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.187172</v>
-      </c>
-      <c r="N17">
-        <v>9.561516000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.1363537060697748</v>
-      </c>
-      <c r="P17">
-        <v>0.1419282855378281</v>
-      </c>
-      <c r="Q17">
-        <v>2.655405100488</v>
-      </c>
-      <c r="R17">
-        <v>15.932430602928</v>
-      </c>
-      <c r="S17">
-        <v>0.03712200264187044</v>
-      </c>
-      <c r="T17">
-        <v>0.02833077764705222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.833154</v>
-      </c>
-      <c r="H18">
-        <v>1.666308</v>
-      </c>
-      <c r="I18">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J18">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>8.001835333333334</v>
-      </c>
-      <c r="N18">
-        <v>24.005506</v>
-      </c>
-      <c r="O18">
-        <v>0.3423348043532233</v>
-      </c>
-      <c r="P18">
-        <v>0.3563305557453488</v>
-      </c>
-      <c r="Q18">
-        <v>6.666761115308001</v>
-      </c>
-      <c r="R18">
-        <v>40.000566691848</v>
-      </c>
-      <c r="S18">
-        <v>0.0931999127702591</v>
-      </c>
-      <c r="T18">
-        <v>0.07112832868668294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.833154</v>
-      </c>
-      <c r="H19">
-        <v>1.666308</v>
-      </c>
-      <c r="I19">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J19">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4.084306000000001</v>
-      </c>
-      <c r="N19">
-        <v>12.252918</v>
-      </c>
-      <c r="O19">
-        <v>0.1747349248245835</v>
-      </c>
-      <c r="P19">
-        <v>0.1818786523575961</v>
-      </c>
-      <c r="Q19">
-        <v>3.402855881124</v>
-      </c>
-      <c r="R19">
-        <v>20.417135286744</v>
-      </c>
-      <c r="S19">
-        <v>0.04757120673820155</v>
-      </c>
-      <c r="T19">
-        <v>0.03630540338849653</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.833154</v>
-      </c>
-      <c r="H20">
-        <v>1.666308</v>
-      </c>
-      <c r="I20">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J20">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.7542475</v>
-      </c>
-      <c r="N20">
-        <v>5.508495</v>
-      </c>
-      <c r="O20">
-        <v>0.1178323146847462</v>
-      </c>
-      <c r="P20">
-        <v>0.0817664532741145</v>
-      </c>
-      <c r="Q20">
-        <v>2.294712321615</v>
-      </c>
-      <c r="R20">
-        <v>9.17884928646</v>
-      </c>
-      <c r="S20">
-        <v>0.03207959374999688</v>
-      </c>
-      <c r="T20">
-        <v>0.01632167399133139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.833154</v>
-      </c>
-      <c r="H21">
-        <v>1.666308</v>
-      </c>
-      <c r="I21">
-        <v>0.272247845048483</v>
-      </c>
-      <c r="J21">
-        <v>0.1996133296452823</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.346736</v>
-      </c>
-      <c r="N21">
-        <v>16.040208</v>
-      </c>
-      <c r="O21">
-        <v>0.2287442500676723</v>
-      </c>
-      <c r="P21">
-        <v>0.2380960530851126</v>
-      </c>
-      <c r="Q21">
-        <v>4.454654485343999</v>
-      </c>
-      <c r="R21">
-        <v>26.727926912064</v>
-      </c>
-      <c r="S21">
-        <v>0.0622751291481551</v>
-      </c>
-      <c r="T21">
-        <v>0.04752714593171921</v>
+        <v>0.0331788707417422</v>
       </c>
     </row>
   </sheetData>
